--- a/courserubrics.xlsx
+++ b/courserubrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diana\Desktop\GRADING\csc413-p2-blai30\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony J Souza\Dropbox\teaching\spring2019\csc413\Assignments\A2\sol\03\csc413-p2-blai30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9FBA3B-37F4-443B-84EF-3D5EB6D24FBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DD6DFD-A540-4E49-A075-9E415FF43F9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="774" windowWidth="23040" windowHeight="12186" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="23040" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment 1 Rubric" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>Category</t>
   </si>
@@ -187,12 +186,6 @@
   </si>
   <si>
     <t>TOTAL</t>
-  </si>
-  <si>
-    <t>dump should have ON and OFF</t>
-  </si>
-  <si>
-    <t>you have this part empty, but since you did a great job explaining stuffs on your reflection, I give you one point</t>
   </si>
 </sst>
 </file>
@@ -760,22 +753,22 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F41" sqref="F41"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.27734375" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="28.27734375" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="58.109375" customWidth="1"/>
-    <col min="4" max="4" width="5.27734375" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="110.44140625" customWidth="1"/>
-    <col min="8" max="26" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="58.140625" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="94.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="110.42578125" customWidth="1"/>
+    <col min="8" max="26" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="20.25" customHeight="1">
@@ -1316,11 +1309,9 @@
         <v>3</v>
       </c>
       <c r="E16" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>54</v>
-      </c>
+      <c r="F16" s="15"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -1604,11 +1595,9 @@
         <v>5</v>
       </c>
       <c r="E24" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
-      <c r="F24" s="15" t="s">
-        <v>53</v>
-      </c>
+      <c r="F24" s="15"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -2218,7 +2207,7 @@
       </c>
       <c r="E41" s="21">
         <f t="shared" si="0"/>
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="5"/>
